--- a/biology/Zoologie/Aulacodes/Aulacodes.xlsx
+++ b/biology/Zoologie/Aulacodes/Aulacodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulacodes est un genre de Lépidoptères de la famille des Crambidae, comprenant une centaine d'espèces originaires des Amériques.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de ce genre est Aulacodes, choisi en 1854 par l'entomologiste français Achille Guénée, pour l'espèce type Aulacodes aechmialis. L'auteur justifie le nom ainsi[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce genre est Aulacodes, choisi en 1854 par l'entomologiste français Achille Guénée, pour l'espèce type Aulacodes aechmialis. L'auteur justifie le nom ainsi :
 « La seconde particularité que présente le genre Aulacodes, et d'où j'ai tiré son nom, est un sillon longitudinal formé par des poils relevés de chaque côté, mais surtout en dehors de la nervure médiane des premières ailes, et qui règne depuis la base jusqu'au bord terminal ; le côté interne est plutôt garni de poils drapés, surtout en approchant de l'extrémité. »
-Le genre Hydrophysa Guenée, 1854, décrit dans le même ouvrage à la page suivante, est synonyme de Aulacodes selon GBIF       (9 octobre 2021)[2].
+Le genre Hydrophysa Guenée, 1854, décrit dans le même ouvrage à la page suivante, est synonyme de Aulacodes selon GBIF       (9 octobre 2021).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (9 octobre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (9 octobre 2021) :
 Aulacodes acroperalis Hampson, 1897
 Aulacodes adjunctalis Snellen, 1895
 Aulacodes adjutrealis Schaus, 1924
